--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +619,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>25,5%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>21,67%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>27,54%</t>
         </is>
@@ -724,62 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>15,35; 21,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,01</t>
+          <t>12,3; 17,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,05</t>
+          <t>20,45; 27,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,3; 26,9</t>
+          <t>29,38; 36,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>24,77; 31,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,21; 36,45</t>
+          <t>24,62; 34,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,15; 31,78</t>
+          <t>23,09; 28,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 34,28</t>
+          <t>19,39; 23,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>23,23; 27,83</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>19,47; 23,87</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>24,32; 30,04</t>
+          <t>23,93; 29,97</t>
         </is>
       </c>
     </row>
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>23,7%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>20,61%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>20,91%</t>
         </is>
@@ -864,62 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>14,87; 19,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,87; 19,77</t>
+          <t>12,93; 17,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,58</t>
+          <t>6,76; 16,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,47</t>
+          <t>27,36; 33,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>23,05; 28,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,06; 33,0</t>
+          <t>29,23; 33,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,37; 29,16</t>
+          <t>21,81; 25,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,1; 34,08</t>
+          <t>18,7; 22,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>21,94; 25,72</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>18,71; 22,45</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>14,28; 24,2</t>
+          <t>13,94; 23,99</t>
         </is>
       </c>
     </row>
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>20,17%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>18,51%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>21,09%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>12,07; 17,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 17,52</t>
+          <t>11,5; 16,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 16,24</t>
+          <t>14,34; 20,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 20,85</t>
+          <t>22,05; 28,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>20,11; 26,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,38; 29,14</t>
+          <t>13,7; 32,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,21; 26,29</t>
+          <t>18,1; 22,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 31,97</t>
+          <t>16,6; 20,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>18,07; 22,49</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>16,39; 20,61</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>13,2; 24,85</t>
+          <t>13,89; 24,87</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>23,44%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>21,02%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>25,95%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>15,32; 20,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,15; 20,61</t>
+          <t>13,26; 18,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 18,04</t>
+          <t>16,58; 21,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,53</t>
+          <t>25,66; 31,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>22,93; 28,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,66; 31,31</t>
+          <t>25,34; 35,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,0; 29,05</t>
+          <t>21,48; 25,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,41; 35,3</t>
+          <t>19,17; 23,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>21,56; 25,61</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>19,05; 22,88</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>22,76; 27,8</t>
+          <t>22,76; 27,91</t>
         </is>
       </c>
     </row>
@@ -1216,60 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>23,21%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>20,46%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>23,63%</t>
         </is>
@@ -1284,62 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,73; 18,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,65; 18,48</t>
+          <t>13,72; 16,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,71; 16,23</t>
+          <t>13,6; 18,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,0</t>
+          <t>27,69; 30,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,22; 27,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,74; 30,61</t>
+          <t>24,13; 32,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,51</t>
+          <t>22,16; 24,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,67; 32,29</t>
+          <t>19,41; 21,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>22,12; 24,29</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 21,47</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 25,37</t>
+          <t>20,31; 25,31</t>
         </is>
       </c>
     </row>
@@ -1352,15 +1179,974 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>127741</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>101913</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>149331</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>229415</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>190055</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>225472</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>357157</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>291968</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>374803</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>108017; 148252</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>82985; 120632</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>129941; 172813</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>204823; 255223</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>166649; 214384</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>178611; 251120</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>323356; 393140</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>261354; 321902</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>325607; 407840</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>175228</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>153744</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148691</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>310671</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>271956</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>301166</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>485899</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>425700</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>449858</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>151333; 203224</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>132184; 177568</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80599; 199601</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>282389; 341757</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>240414; 302054</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>280232; 325733</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>447216; 530387</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>386280; 467479</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>299879; 516190</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>111259</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>104667</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>121352</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>198271</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>181236</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>224042</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>309530</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>285904</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>345394</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>91442; 132552</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>87321; 123512</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>101081; 145537</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>171362; 224731</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>157878; 207326</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>127917; 300621</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>277765; 345671</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>256411; 318885</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>227577; 407374</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>168378</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>146202</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>175720</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>300252</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>270215</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>348923</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>468630</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>416418</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>524643</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>145149; 195842</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>124338; 169081</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>153659; 200358</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>269909; 332634</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>239339; 301136</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>277434; 383675</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>429586; 508916</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>379909; 456674</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>460117; 564357</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>962</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2687</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>582606</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>506527</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>595095</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1038610</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>913463</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1099603</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1621216</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1419989</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1694698</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>539147; 628616</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>465684; 548403</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>470623; 656562</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>985463; 1095935</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>858554; 967781</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>895754; 1194646</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1547932; 1698386</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1346697; 1488780</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1456828; 1814962</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
